--- a/Outputs/_BasicUnique_Terminator_Clust.xlsx
+++ b/Outputs/_BasicUnique_Terminator_Clust.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="_BasicUnique_Terminator_Clust" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -947,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1354,6 +1354,12 @@
         <v>38</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f>SUM(C2:C33)</f>
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
